--- a/tree.xlsx
+++ b/tree.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\petit\petit_bot\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C579678B-87B7-4D17-ABD8-17EE758B3899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,74 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>bot</t>
+  </si>
+  <si>
+    <t>set_density - den</t>
+  </si>
+  <si>
+    <t>set_idea-set_idea</t>
+  </si>
+  <si>
+    <t>upload_gcode - gcode</t>
+  </si>
+  <si>
+    <t>just print</t>
+  </si>
+  <si>
+    <t>restart_set_density</t>
+  </si>
+  <si>
+    <t>update_density</t>
+  </si>
+  <si>
+    <t>ikm_full</t>
+  </si>
+  <si>
+    <t>set_idea_upload_picture</t>
+  </si>
+  <si>
+    <t>set_idea_input_description</t>
+  </si>
+  <si>
+    <t>set_idea_accepted_idea</t>
+  </si>
+  <si>
+    <t>set_idea_insert_idea</t>
+  </si>
+  <si>
+    <t>restart_set_idea</t>
+  </si>
+  <si>
+    <t>idea_stl_file_question</t>
+  </si>
+  <si>
+    <t>no:set_idea_input_innovator</t>
+  </si>
+  <si>
+    <t>set_idea_same_innovator</t>
+  </si>
+  <si>
+    <t>yes : same uploader</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>add user</t>
+  </si>
+  <si>
+    <t>remove user</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +99,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,8 +156,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +464,493 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:W29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="8.83984375" style="5"/>
+    <col min="2" max="2" width="24.47265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.15625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.26171875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.9453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.7890625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.62890625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.68359375" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7890625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.83984375" style="5"/>
+    <col min="12" max="23" width="8.83984375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="3"/>
+      <c r="B4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="3"/>
+      <c r="B5" s="6"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="3"/>
+      <c r="B6" s="6"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="3"/>
+      <c r="B7" s="6"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="3"/>
+      <c r="B8" s="6"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="3"/>
+      <c r="B9" s="6"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="3"/>
+      <c r="B10" s="6"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="3"/>
+      <c r="B11" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="3"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="3"/>
+      <c r="B13" s="7"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="3"/>
+      <c r="B14" s="7"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="3"/>
+      <c r="B15" s="7"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="3"/>
+      <c r="B16" s="7"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="3"/>
+      <c r="B17" s="7"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="3"/>
+      <c r="B18" s="7"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="3"/>
+      <c r="B19" s="7"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="3"/>
+      <c r="B20" s="7"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="3"/>
+      <c r="B21" s="7"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="3"/>
+      <c r="B22" s="7"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="3"/>
+      <c r="B23" s="7"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="3"/>
+      <c r="B24" s="7"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="3"/>
+      <c r="B25" s="7"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="3"/>
+      <c r="B26" s="7"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="3"/>
+      <c r="B27" s="7"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="3"/>
+      <c r="B28" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="3"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="A1:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="B4:B10"/>
+    <mergeCell ref="B11:B27"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="I11:I12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>